--- a/GridWorld.xlsx
+++ b/GridWorld.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\LIST\Produce\Python practice\RL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11605867-45F9-458A-A83B-B3307CDB2600}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70968911-B115-428A-99D9-F4118ACD607F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-16425" windowWidth="16440" windowHeight="37920" activeTab="5" xr2:uid="{A8F8B250-69AB-4911-B88D-172EAACC2E00}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="6" xr2:uid="{A8F8B250-69AB-4911-B88D-172EAACC2E00}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
@@ -19,6 +19,9 @@
     <sheet name="Sheet4" sheetId="6" r:id="rId4"/>
     <sheet name="Sheet5" sheetId="7" r:id="rId5"/>
     <sheet name="Sheet6" sheetId="9" r:id="rId6"/>
+    <sheet name="Sheet7" sheetId="11" r:id="rId7"/>
+    <sheet name="Sheet8" sheetId="12" r:id="rId8"/>
+    <sheet name="Sheet9" sheetId="14" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,12 +42,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3962" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5251" uniqueCount="3">
   <si>
     <t>#</t>
   </si>
   <si>
     <t>S</t>
+  </si>
+  <si>
+    <t>s</t>
   </si>
 </sst>
 </file>
@@ -193,7 +199,91 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="24">
+  <dxfs count="36">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1018,13 +1108,13 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:XFD8 A9:M9 O9:XFD9 A10:XFD10 A11:M11 O11:XFD11 A12:XFD1048576">
-    <cfRule type="containsText" dxfId="23" priority="1" stopIfTrue="1" operator="containsText" text="S">
+    <cfRule type="containsText" dxfId="35" priority="1" stopIfTrue="1" operator="containsText" text="S">
       <formula>NOT(ISERROR(SEARCH("S",A1)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="33" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="32" priority="4" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1136,13 +1226,13 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:XFD1048576">
-    <cfRule type="containsText" dxfId="19" priority="1" stopIfTrue="1" operator="containsText" text="S">
+    <cfRule type="containsText" dxfId="31" priority="1" stopIfTrue="1" operator="containsText" text="S">
       <formula>NOT(ISERROR(SEARCH("S",A1)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="29" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="28" priority="4" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12671,13 +12761,13 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:XFD1048576">
-    <cfRule type="containsText" dxfId="15" priority="1" stopIfTrue="1" operator="containsText" text="S">
+    <cfRule type="containsText" dxfId="27" priority="1" stopIfTrue="1" operator="containsText" text="S">
       <formula>NOT(ISERROR(SEARCH("S",A1)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="25" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="24" priority="4" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12844,13 +12934,13 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:XFD1048576">
-    <cfRule type="containsText" dxfId="11" priority="1" stopIfTrue="1" operator="containsText" text="S">
+    <cfRule type="containsText" dxfId="23" priority="1" stopIfTrue="1" operator="containsText" text="S">
       <formula>NOT(ISERROR(SEARCH("S",A1)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="21" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="20" priority="4" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13037,13 +13127,13 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:XFD1048576">
-    <cfRule type="containsText" dxfId="7" priority="1" stopIfTrue="1" operator="containsText" text="S">
+    <cfRule type="containsText" dxfId="19" priority="1" stopIfTrue="1" operator="containsText" text="S">
       <formula>NOT(ISERROR(SEARCH("S",A1)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="17" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="16" priority="4" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13076,8 +13166,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8F6417E-BB43-4874-AE6E-DD9A269692CE}">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.36328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -13166,13 +13256,13 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:XFD1048576">
-    <cfRule type="containsText" dxfId="3" priority="1" stopIfTrue="1" operator="containsText" text="S">
+    <cfRule type="containsText" dxfId="15" priority="1" stopIfTrue="1" operator="containsText" text="S">
       <formula>NOT(ISERROR(SEARCH("S",A1)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="13" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="12" priority="4" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13199,4 +13289,4595 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{126B8AB3-ADB5-4620-8D42-3160D05951DE}">
+  <dimension ref="A1:AE31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AD10" sqref="AD10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3.36328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="2" width="3.6328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="29" width="3.36328125" style="4"/>
+    <col min="30" max="30" width="7.81640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="3.81640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="3.36328125" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="S1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="T1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="U1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="V1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="W1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="X1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE1" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE2" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A3" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="O3" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="T3" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="U3" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="V3" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="W3" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y3" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA3" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC3" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE3" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A4" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="M4" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="O4" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="U4" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="W4" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC4" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE4" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A5" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="O5" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="P5" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="R5" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="S5" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="U5" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="W5" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="X5" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC5" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE5" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A6" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="U6" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC6" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE6" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A7" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="L7" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="M7" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="N7" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="S7" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="T7" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="U7" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="W7" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="X7" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC7" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE7" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A8" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="M8" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="S8" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC8" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE8" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A9" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="K9" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="L9" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="M9" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="O9" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="P9" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="R9" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="S9" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="V9" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="W9" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="X9" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA9" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB9" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC9" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE9" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A10" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="M10" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="S10" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="W10" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA10" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC10" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE10" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A11" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="K11" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="M11" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="O11" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="P11" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="S11" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="T11" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="U11" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="W11" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y11" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z11" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA11" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC11" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE11" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A12" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="K12" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="M12" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="S12" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="W12" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA12" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE12" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A13" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="K13" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="L13" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="M13" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="N13" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="O13" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="P13" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="S13" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="T13" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="U13" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="V13" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="W13" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="X13" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB13" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC13" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD13" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE13" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A14" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="K14" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="O14" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC14" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE14" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A15" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="K15" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="M15" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="O15" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="R15" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="S15" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="T15" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="U15" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="V15" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="W15" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="X15" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA15" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC15" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE15" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A16" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="K16" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="M16" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA16" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE16" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A17" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J17" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="K17" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="M17" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="N17" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="O17" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="P17" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="T17" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="U17" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="V17" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="W17" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="X17" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y17" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA17" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC17" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD17" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE17" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A18" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="K18" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="U18" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="W18" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA18" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE18" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A19" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="I19" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="K19" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="L19" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="M19" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="N19" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="O19" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="R19" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="S19" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="U19" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="W19" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y19" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z19" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA19" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB19" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE19" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A20" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="I20" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="K20" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="O20" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="S20" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="U20" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="W20" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE20" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A21" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="I21" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="K21" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="O21" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="P21" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="S21" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="U21" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="W21" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="X21" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y21" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z21" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC21" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD21" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE21" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A22" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="I22" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="M22" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="S22" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y22" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD22" s="4">
+        <v>-100</v>
+      </c>
+      <c r="AE22" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A23" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="I23" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J23" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="K23" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="L23" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="M23" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="N23" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="O23" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="P23" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="R23" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="S23" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="T23" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="U23" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="V23" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="W23" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y23" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z23" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA23" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB23" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC23" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD23" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE23" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A24" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="I24" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="O24" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="S24" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="W24" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA24" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD24" s="4">
+        <v>1000000</v>
+      </c>
+      <c r="AE24" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A25" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="I25" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J25" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="O25" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="S25" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="W25" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="X25" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y25" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA25" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC25" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD25" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE25" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A26" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="I26" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="M26" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="O26" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="U26" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="W26" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA26" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE26" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A27" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="I27" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="K27" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="L27" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="M27" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="O27" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="R27" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="S27" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="T27" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="U27" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="W27" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y27" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z27" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA27" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB27" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE27" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A28" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="I28" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="K28" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="M28" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="U28" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y28" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE28" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A29" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="I29" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="K29" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="M29" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="N29" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="O29" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="P29" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="R29" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="S29" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="U29" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="V29" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="W29" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="X29" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y29" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC29" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD29" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE29" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A30" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="S30" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA30" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE30" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A31" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="H31" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="I31" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J31" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="K31" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="L31" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="M31" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="N31" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="O31" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="P31" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="R31" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="S31" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="T31" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="U31" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="V31" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="W31" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="X31" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y31" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z31" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA31" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB31" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC31" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD31" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE31" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A1:XFD1048576">
+    <cfRule type="containsText" dxfId="11" priority="1" stopIfTrue="1" operator="containsText" text="S">
+      <formula>NOT(ISERROR(SEARCH("S",A1)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="3" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="4" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="8" orientation="portrait" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="2" stopIfTrue="1" operator="containsText" id="{256783A1-68E5-4F20-A9FF-CBBFFCB1E6D4}">
+            <xm:f>NOT(ISERROR(SEARCH("#",A1)))</xm:f>
+            <xm:f>"#"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="1"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>A1:XFD1048576</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78D6EE28-4783-45E1-AD7F-F32AE7F42D85}">
+  <dimension ref="A1:AE17"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AC4" sqref="AC4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3.36328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="3.36328125" style="4"/>
+    <col min="2" max="3" width="3.6328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="2" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="28" width="3.36328125" style="4"/>
+    <col min="29" max="29" width="4.453125" style="4" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="3.54296875" style="4" customWidth="1"/>
+    <col min="31" max="57" width="3.36328125" style="4"/>
+    <col min="58" max="58" width="7.81640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="3.81640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="60" max="16384" width="3.36328125" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="S1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="T1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="U1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="V1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="W1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="X1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE1" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="R2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="S2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="T2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="U2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="V2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="W2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="X2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE2" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A3" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="P3" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB3" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC3" s="4">
+        <v>-100</v>
+      </c>
+      <c r="AD3" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE3" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A4" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="M4" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="N4" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="O4" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="P4" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="R4" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="S4" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="T4" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="U4" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="V4" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="X4" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y4" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z4" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB4" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD4" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE4" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A5" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="P5" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="R5" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="V5" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="X5" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB5" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD5" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE5" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A6" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="M6" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="N6" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="P6" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="R6" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="T6" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="V6" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="X6" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB6" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD6" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE6" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A7" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="P7" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="R7" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="T7" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="X7" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD7" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE7" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A8" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="L8" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="M8" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="N8" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="O8" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="P8" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="R8" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="T8" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="U8" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="V8" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="W8" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="X8" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB8" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC8" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD8" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE8" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A9" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="L9" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="R9" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD9" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE9" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A10" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="L10" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="N10" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="O10" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="P10" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="R10" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="S10" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="T10" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="U10" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="V10" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="X10" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB10" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD10" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE10" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A11" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="N11" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="R11" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="V11" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="X11" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB11" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD11" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE11" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A12" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="K12" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="L12" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="N12" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="P12" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="R12" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="T12" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="V12" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="W12" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="X12" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z12" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA12" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB12" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD12" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE12" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A13" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="L13" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="P13" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="T13" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="X13" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD13" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE13" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A14" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J14" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="L14" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="M14" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="N14" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="O14" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="P14" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="R14" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="S14" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="T14" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="U14" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="V14" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="X14" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD14" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE14" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A15" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="R15" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB15" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD15" s="4">
+        <v>10000000000</v>
+      </c>
+      <c r="AE15" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A16" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J16" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="K16" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="L16" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="M16" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="N16" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="O16" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="P16" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="R16" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="S16" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="T16" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="U16" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="V16" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="W16" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="X16" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y16" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z16" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA16" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB16" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC16" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD16" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE16" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A17" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J17" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="K17" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="L17" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="M17" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="N17" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="O17" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="P17" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="R17" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="S17" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="T17" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="U17" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="V17" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="W17" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="X17" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y17" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z17" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA17" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB17" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC17" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD17" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE17" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A1:XFD1048576">
+    <cfRule type="containsText" dxfId="7" priority="1" stopIfTrue="1" operator="containsText" text="S">
+      <formula>NOT(ISERROR(SEARCH("S",A1)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="3" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="4" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="8" orientation="portrait" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="2" stopIfTrue="1" operator="containsText" id="{F1BC0799-1DC6-4361-BC01-91516CE6AF41}">
+            <xm:f>NOT(ISERROR(SEARCH("#",A1)))</xm:f>
+            <xm:f>"#"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="1"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>A1:XFD1048576</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9977E248-1F63-4C61-8488-0B6C821BF60B}">
+  <dimension ref="A1:T41"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S3" sqref="S3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3.36328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="3.36328125" style="4"/>
+    <col min="2" max="3" width="3.6328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="2" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="18" width="3.36328125" style="4"/>
+    <col min="19" max="19" width="8.453125" style="4" bestFit="1" customWidth="1"/>
+    <col min="20" max="46" width="3.36328125" style="4"/>
+    <col min="47" max="47" width="7.81640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="3.81640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="49" max="16384" width="3.36328125" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L1" t="s">
+        <v>0</v>
+      </c>
+      <c r="M1" t="s">
+        <v>0</v>
+      </c>
+      <c r="N1" t="s">
+        <v>0</v>
+      </c>
+      <c r="O1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>0</v>
+      </c>
+      <c r="R1" t="s">
+        <v>0</v>
+      </c>
+      <c r="S1" t="s">
+        <v>0</v>
+      </c>
+      <c r="T1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2"/>
+      <c r="D2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2"/>
+      <c r="F2"/>
+      <c r="G2"/>
+      <c r="H2"/>
+      <c r="I2"/>
+      <c r="J2" t="s">
+        <v>0</v>
+      </c>
+      <c r="K2"/>
+      <c r="L2"/>
+      <c r="M2"/>
+      <c r="N2" t="s">
+        <v>0</v>
+      </c>
+      <c r="O2"/>
+      <c r="P2"/>
+      <c r="Q2"/>
+      <c r="R2"/>
+      <c r="S2">
+        <v>-1000000</v>
+      </c>
+      <c r="T2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3"/>
+      <c r="D3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F3" t="s">
+        <v>0</v>
+      </c>
+      <c r="G3"/>
+      <c r="H3" t="s">
+        <v>0</v>
+      </c>
+      <c r="I3" t="s">
+        <v>0</v>
+      </c>
+      <c r="J3" t="s">
+        <v>0</v>
+      </c>
+      <c r="K3"/>
+      <c r="L3" t="s">
+        <v>0</v>
+      </c>
+      <c r="M3"/>
+      <c r="N3" t="s">
+        <v>0</v>
+      </c>
+      <c r="O3"/>
+      <c r="P3" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q3"/>
+      <c r="R3" t="s">
+        <v>0</v>
+      </c>
+      <c r="S3" t="s">
+        <v>0</v>
+      </c>
+      <c r="T3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4"/>
+      <c r="D4"/>
+      <c r="E4"/>
+      <c r="F4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G4"/>
+      <c r="H4"/>
+      <c r="I4"/>
+      <c r="J4"/>
+      <c r="K4"/>
+      <c r="L4" t="s">
+        <v>0</v>
+      </c>
+      <c r="M4"/>
+      <c r="N4" t="s">
+        <v>0</v>
+      </c>
+      <c r="O4"/>
+      <c r="P4" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q4"/>
+      <c r="R4"/>
+      <c r="S4"/>
+      <c r="T4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E5"/>
+      <c r="F5" t="s">
+        <v>0</v>
+      </c>
+      <c r="G5" t="s">
+        <v>0</v>
+      </c>
+      <c r="H5" t="s">
+        <v>0</v>
+      </c>
+      <c r="I5" t="s">
+        <v>0</v>
+      </c>
+      <c r="J5" t="s">
+        <v>0</v>
+      </c>
+      <c r="K5" t="s">
+        <v>0</v>
+      </c>
+      <c r="L5" t="s">
+        <v>0</v>
+      </c>
+      <c r="M5"/>
+      <c r="N5" t="s">
+        <v>0</v>
+      </c>
+      <c r="O5"/>
+      <c r="P5" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>0</v>
+      </c>
+      <c r="R5" t="s">
+        <v>0</v>
+      </c>
+      <c r="S5"/>
+      <c r="T5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6"/>
+      <c r="D6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E6"/>
+      <c r="F6"/>
+      <c r="G6"/>
+      <c r="H6"/>
+      <c r="I6"/>
+      <c r="J6" t="s">
+        <v>0</v>
+      </c>
+      <c r="K6"/>
+      <c r="L6"/>
+      <c r="M6"/>
+      <c r="N6" t="s">
+        <v>0</v>
+      </c>
+      <c r="O6"/>
+      <c r="P6" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q6"/>
+      <c r="R6" t="s">
+        <v>0</v>
+      </c>
+      <c r="S6"/>
+      <c r="T6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7"/>
+      <c r="D7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E7" t="s">
+        <v>0</v>
+      </c>
+      <c r="F7" t="s">
+        <v>0</v>
+      </c>
+      <c r="G7" t="s">
+        <v>0</v>
+      </c>
+      <c r="H7" t="s">
+        <v>0</v>
+      </c>
+      <c r="I7"/>
+      <c r="J7" t="s">
+        <v>0</v>
+      </c>
+      <c r="K7"/>
+      <c r="L7" t="s">
+        <v>0</v>
+      </c>
+      <c r="M7" t="s">
+        <v>0</v>
+      </c>
+      <c r="N7" t="s">
+        <v>0</v>
+      </c>
+      <c r="O7"/>
+      <c r="P7" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q7"/>
+      <c r="R7" t="s">
+        <v>0</v>
+      </c>
+      <c r="S7"/>
+      <c r="T7" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8"/>
+      <c r="D8"/>
+      <c r="E8"/>
+      <c r="F8"/>
+      <c r="G8"/>
+      <c r="H8" t="s">
+        <v>0</v>
+      </c>
+      <c r="I8"/>
+      <c r="J8" t="s">
+        <v>0</v>
+      </c>
+      <c r="K8"/>
+      <c r="L8"/>
+      <c r="M8"/>
+      <c r="N8"/>
+      <c r="O8"/>
+      <c r="P8"/>
+      <c r="Q8"/>
+      <c r="R8" t="s">
+        <v>0</v>
+      </c>
+      <c r="S8"/>
+      <c r="T8" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9"/>
+      <c r="D9" t="s">
+        <v>0</v>
+      </c>
+      <c r="E9" t="s">
+        <v>0</v>
+      </c>
+      <c r="F9" t="s">
+        <v>0</v>
+      </c>
+      <c r="G9" t="s">
+        <v>0</v>
+      </c>
+      <c r="H9" t="s">
+        <v>0</v>
+      </c>
+      <c r="I9"/>
+      <c r="J9" t="s">
+        <v>0</v>
+      </c>
+      <c r="K9" t="s">
+        <v>0</v>
+      </c>
+      <c r="L9" t="s">
+        <v>0</v>
+      </c>
+      <c r="M9" t="s">
+        <v>0</v>
+      </c>
+      <c r="N9" t="s">
+        <v>0</v>
+      </c>
+      <c r="O9" t="s">
+        <v>0</v>
+      </c>
+      <c r="P9" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>0</v>
+      </c>
+      <c r="R9" t="s">
+        <v>0</v>
+      </c>
+      <c r="S9"/>
+      <c r="T9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10"/>
+      <c r="D10"/>
+      <c r="E10"/>
+      <c r="F10"/>
+      <c r="G10"/>
+      <c r="H10" t="s">
+        <v>0</v>
+      </c>
+      <c r="I10"/>
+      <c r="J10"/>
+      <c r="K10"/>
+      <c r="L10"/>
+      <c r="M10"/>
+      <c r="N10"/>
+      <c r="O10"/>
+      <c r="P10" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q10"/>
+      <c r="R10"/>
+      <c r="S10"/>
+      <c r="T10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11"/>
+      <c r="D11" t="s">
+        <v>0</v>
+      </c>
+      <c r="E11" t="s">
+        <v>0</v>
+      </c>
+      <c r="F11" t="s">
+        <v>0</v>
+      </c>
+      <c r="G11"/>
+      <c r="H11" t="s">
+        <v>0</v>
+      </c>
+      <c r="I11" t="s">
+        <v>0</v>
+      </c>
+      <c r="J11" t="s">
+        <v>0</v>
+      </c>
+      <c r="K11" t="s">
+        <v>0</v>
+      </c>
+      <c r="L11" t="s">
+        <v>0</v>
+      </c>
+      <c r="M11" t="s">
+        <v>0</v>
+      </c>
+      <c r="N11" t="s">
+        <v>0</v>
+      </c>
+      <c r="O11"/>
+      <c r="P11" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q11"/>
+      <c r="R11" t="s">
+        <v>0</v>
+      </c>
+      <c r="S11" t="s">
+        <v>0</v>
+      </c>
+      <c r="T11" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12"/>
+      <c r="D12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E12"/>
+      <c r="F12"/>
+      <c r="G12"/>
+      <c r="H12" t="s">
+        <v>0</v>
+      </c>
+      <c r="I12"/>
+      <c r="J12"/>
+      <c r="K12"/>
+      <c r="L12"/>
+      <c r="M12"/>
+      <c r="N12" t="s">
+        <v>0</v>
+      </c>
+      <c r="O12"/>
+      <c r="P12" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q12"/>
+      <c r="R12"/>
+      <c r="S12"/>
+      <c r="T12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" t="s">
+        <v>0</v>
+      </c>
+      <c r="D13" t="s">
+        <v>0</v>
+      </c>
+      <c r="E13"/>
+      <c r="F13" t="s">
+        <v>0</v>
+      </c>
+      <c r="G13"/>
+      <c r="H13" t="s">
+        <v>0</v>
+      </c>
+      <c r="I13"/>
+      <c r="J13" t="s">
+        <v>0</v>
+      </c>
+      <c r="K13"/>
+      <c r="L13" t="s">
+        <v>0</v>
+      </c>
+      <c r="M13" t="s">
+        <v>0</v>
+      </c>
+      <c r="N13" t="s">
+        <v>0</v>
+      </c>
+      <c r="O13"/>
+      <c r="P13" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>0</v>
+      </c>
+      <c r="R13" t="s">
+        <v>0</v>
+      </c>
+      <c r="S13"/>
+      <c r="T13" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14"/>
+      <c r="D14"/>
+      <c r="E14"/>
+      <c r="F14" t="s">
+        <v>0</v>
+      </c>
+      <c r="G14"/>
+      <c r="H14"/>
+      <c r="I14"/>
+      <c r="J14" t="s">
+        <v>0</v>
+      </c>
+      <c r="K14"/>
+      <c r="L14" t="s">
+        <v>0</v>
+      </c>
+      <c r="M14"/>
+      <c r="N14"/>
+      <c r="O14"/>
+      <c r="P14" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q14"/>
+      <c r="R14"/>
+      <c r="S14"/>
+      <c r="T14" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15"/>
+      <c r="D15" t="s">
+        <v>0</v>
+      </c>
+      <c r="E15" t="s">
+        <v>0</v>
+      </c>
+      <c r="F15" t="s">
+        <v>0</v>
+      </c>
+      <c r="G15" t="s">
+        <v>0</v>
+      </c>
+      <c r="H15" t="s">
+        <v>0</v>
+      </c>
+      <c r="I15" t="s">
+        <v>0</v>
+      </c>
+      <c r="J15" t="s">
+        <v>0</v>
+      </c>
+      <c r="K15" t="s">
+        <v>0</v>
+      </c>
+      <c r="L15" t="s">
+        <v>0</v>
+      </c>
+      <c r="M15"/>
+      <c r="N15" t="s">
+        <v>0</v>
+      </c>
+      <c r="O15" t="s">
+        <v>0</v>
+      </c>
+      <c r="P15" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q15"/>
+      <c r="R15" t="s">
+        <v>0</v>
+      </c>
+      <c r="S15" t="s">
+        <v>0</v>
+      </c>
+      <c r="T15" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16"/>
+      <c r="D16"/>
+      <c r="E16"/>
+      <c r="F16"/>
+      <c r="G16"/>
+      <c r="H16" t="s">
+        <v>0</v>
+      </c>
+      <c r="I16"/>
+      <c r="J16"/>
+      <c r="K16"/>
+      <c r="L16" t="s">
+        <v>0</v>
+      </c>
+      <c r="M16"/>
+      <c r="N16" t="s">
+        <v>0</v>
+      </c>
+      <c r="O16"/>
+      <c r="P16"/>
+      <c r="Q16"/>
+      <c r="R16"/>
+      <c r="S16"/>
+      <c r="T16" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17"/>
+      <c r="D17" t="s">
+        <v>0</v>
+      </c>
+      <c r="E17" t="s">
+        <v>0</v>
+      </c>
+      <c r="F17" t="s">
+        <v>0</v>
+      </c>
+      <c r="G17"/>
+      <c r="H17" t="s">
+        <v>0</v>
+      </c>
+      <c r="I17"/>
+      <c r="J17" t="s">
+        <v>0</v>
+      </c>
+      <c r="K17"/>
+      <c r="L17" t="s">
+        <v>0</v>
+      </c>
+      <c r="M17"/>
+      <c r="N17" t="s">
+        <v>0</v>
+      </c>
+      <c r="O17" t="s">
+        <v>0</v>
+      </c>
+      <c r="P17" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q17"/>
+      <c r="R17" t="s">
+        <v>0</v>
+      </c>
+      <c r="S17"/>
+      <c r="T17" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18"/>
+      <c r="D18" t="s">
+        <v>0</v>
+      </c>
+      <c r="E18"/>
+      <c r="F18"/>
+      <c r="G18"/>
+      <c r="H18" t="s">
+        <v>0</v>
+      </c>
+      <c r="I18"/>
+      <c r="J18" t="s">
+        <v>0</v>
+      </c>
+      <c r="K18"/>
+      <c r="L18" t="s">
+        <v>0</v>
+      </c>
+      <c r="M18"/>
+      <c r="N18"/>
+      <c r="O18"/>
+      <c r="P18" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q18"/>
+      <c r="R18" t="s">
+        <v>0</v>
+      </c>
+      <c r="S18"/>
+      <c r="T18" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C19"/>
+      <c r="D19" t="s">
+        <v>0</v>
+      </c>
+      <c r="E19"/>
+      <c r="F19" t="s">
+        <v>0</v>
+      </c>
+      <c r="G19" t="s">
+        <v>0</v>
+      </c>
+      <c r="H19" t="s">
+        <v>0</v>
+      </c>
+      <c r="I19"/>
+      <c r="J19" t="s">
+        <v>0</v>
+      </c>
+      <c r="K19"/>
+      <c r="L19" t="s">
+        <v>0</v>
+      </c>
+      <c r="M19" t="s">
+        <v>0</v>
+      </c>
+      <c r="N19" t="s">
+        <v>0</v>
+      </c>
+      <c r="O19"/>
+      <c r="P19" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>0</v>
+      </c>
+      <c r="R19" t="s">
+        <v>0</v>
+      </c>
+      <c r="S19"/>
+      <c r="T19" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20"/>
+      <c r="D20" t="s">
+        <v>0</v>
+      </c>
+      <c r="E20"/>
+      <c r="F20"/>
+      <c r="G20"/>
+      <c r="H20"/>
+      <c r="I20"/>
+      <c r="J20" t="s">
+        <v>0</v>
+      </c>
+      <c r="K20"/>
+      <c r="L20"/>
+      <c r="M20"/>
+      <c r="N20" t="s">
+        <v>0</v>
+      </c>
+      <c r="O20"/>
+      <c r="P20"/>
+      <c r="Q20"/>
+      <c r="R20" t="s">
+        <v>0</v>
+      </c>
+      <c r="S20"/>
+      <c r="T20" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B21" t="s">
+        <v>0</v>
+      </c>
+      <c r="C21" t="s">
+        <v>0</v>
+      </c>
+      <c r="D21" t="s">
+        <v>0</v>
+      </c>
+      <c r="E21" t="s">
+        <v>0</v>
+      </c>
+      <c r="F21" t="s">
+        <v>0</v>
+      </c>
+      <c r="G21" t="s">
+        <v>0</v>
+      </c>
+      <c r="H21" t="s">
+        <v>0</v>
+      </c>
+      <c r="I21" t="s">
+        <v>0</v>
+      </c>
+      <c r="J21" t="s">
+        <v>0</v>
+      </c>
+      <c r="K21" t="s">
+        <v>0</v>
+      </c>
+      <c r="L21" t="s">
+        <v>0</v>
+      </c>
+      <c r="M21"/>
+      <c r="N21" t="s">
+        <v>0</v>
+      </c>
+      <c r="O21" t="s">
+        <v>0</v>
+      </c>
+      <c r="P21" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q21"/>
+      <c r="R21" t="s">
+        <v>0</v>
+      </c>
+      <c r="S21"/>
+      <c r="T21" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" t="s">
+        <v>0</v>
+      </c>
+      <c r="C22"/>
+      <c r="D22"/>
+      <c r="E22"/>
+      <c r="F22"/>
+      <c r="G22"/>
+      <c r="H22" t="s">
+        <v>0</v>
+      </c>
+      <c r="I22"/>
+      <c r="J22"/>
+      <c r="K22"/>
+      <c r="L22"/>
+      <c r="M22"/>
+      <c r="N22" t="s">
+        <v>0</v>
+      </c>
+      <c r="O22"/>
+      <c r="P22"/>
+      <c r="Q22"/>
+      <c r="R22" t="s">
+        <v>0</v>
+      </c>
+      <c r="S22"/>
+      <c r="T22" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B23" t="s">
+        <v>0</v>
+      </c>
+      <c r="C23"/>
+      <c r="D23" t="s">
+        <v>0</v>
+      </c>
+      <c r="E23" t="s">
+        <v>0</v>
+      </c>
+      <c r="F23" t="s">
+        <v>0</v>
+      </c>
+      <c r="G23"/>
+      <c r="H23" t="s">
+        <v>0</v>
+      </c>
+      <c r="I23"/>
+      <c r="J23" t="s">
+        <v>0</v>
+      </c>
+      <c r="K23" t="s">
+        <v>0</v>
+      </c>
+      <c r="L23" t="s">
+        <v>0</v>
+      </c>
+      <c r="M23" t="s">
+        <v>0</v>
+      </c>
+      <c r="N23" t="s">
+        <v>0</v>
+      </c>
+      <c r="O23"/>
+      <c r="P23" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>0</v>
+      </c>
+      <c r="R23" t="s">
+        <v>0</v>
+      </c>
+      <c r="S23"/>
+      <c r="T23" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B24" t="s">
+        <v>0</v>
+      </c>
+      <c r="C24"/>
+      <c r="D24" t="s">
+        <v>0</v>
+      </c>
+      <c r="E24"/>
+      <c r="F24"/>
+      <c r="G24"/>
+      <c r="H24"/>
+      <c r="I24"/>
+      <c r="J24" t="s">
+        <v>0</v>
+      </c>
+      <c r="K24"/>
+      <c r="L24"/>
+      <c r="M24"/>
+      <c r="N24"/>
+      <c r="O24"/>
+      <c r="P24" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q24"/>
+      <c r="R24"/>
+      <c r="S24"/>
+      <c r="T24" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B25" t="s">
+        <v>0</v>
+      </c>
+      <c r="C25"/>
+      <c r="D25" t="s">
+        <v>0</v>
+      </c>
+      <c r="E25" t="s">
+        <v>0</v>
+      </c>
+      <c r="F25" t="s">
+        <v>0</v>
+      </c>
+      <c r="G25" t="s">
+        <v>0</v>
+      </c>
+      <c r="H25" t="s">
+        <v>0</v>
+      </c>
+      <c r="I25"/>
+      <c r="J25" t="s">
+        <v>0</v>
+      </c>
+      <c r="K25"/>
+      <c r="L25" t="s">
+        <v>0</v>
+      </c>
+      <c r="M25" t="s">
+        <v>0</v>
+      </c>
+      <c r="N25" t="s">
+        <v>0</v>
+      </c>
+      <c r="O25" t="s">
+        <v>0</v>
+      </c>
+      <c r="P25" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>0</v>
+      </c>
+      <c r="R25" t="s">
+        <v>0</v>
+      </c>
+      <c r="S25"/>
+      <c r="T25" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>0</v>
+      </c>
+      <c r="B26" t="s">
+        <v>0</v>
+      </c>
+      <c r="C26"/>
+      <c r="D26" t="s">
+        <v>0</v>
+      </c>
+      <c r="E26"/>
+      <c r="F26"/>
+      <c r="G26"/>
+      <c r="H26" t="s">
+        <v>0</v>
+      </c>
+      <c r="I26"/>
+      <c r="J26" t="s">
+        <v>0</v>
+      </c>
+      <c r="K26"/>
+      <c r="L26" t="s">
+        <v>0</v>
+      </c>
+      <c r="M26"/>
+      <c r="N26"/>
+      <c r="O26"/>
+      <c r="P26"/>
+      <c r="Q26"/>
+      <c r="R26"/>
+      <c r="S26"/>
+      <c r="T26" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>0</v>
+      </c>
+      <c r="B27" t="s">
+        <v>0</v>
+      </c>
+      <c r="C27"/>
+      <c r="D27" t="s">
+        <v>0</v>
+      </c>
+      <c r="E27"/>
+      <c r="F27" t="s">
+        <v>0</v>
+      </c>
+      <c r="G27"/>
+      <c r="H27" t="s">
+        <v>0</v>
+      </c>
+      <c r="I27" t="s">
+        <v>0</v>
+      </c>
+      <c r="J27" t="s">
+        <v>0</v>
+      </c>
+      <c r="K27"/>
+      <c r="L27" t="s">
+        <v>0</v>
+      </c>
+      <c r="M27"/>
+      <c r="N27" t="s">
+        <v>0</v>
+      </c>
+      <c r="O27" t="s">
+        <v>0</v>
+      </c>
+      <c r="P27" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>0</v>
+      </c>
+      <c r="R27" t="s">
+        <v>0</v>
+      </c>
+      <c r="S27" t="s">
+        <v>0</v>
+      </c>
+      <c r="T27" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>0</v>
+      </c>
+      <c r="B28" t="s">
+        <v>0</v>
+      </c>
+      <c r="C28"/>
+      <c r="D28"/>
+      <c r="E28"/>
+      <c r="F28" t="s">
+        <v>0</v>
+      </c>
+      <c r="G28"/>
+      <c r="H28"/>
+      <c r="I28"/>
+      <c r="J28" t="s">
+        <v>0</v>
+      </c>
+      <c r="K28"/>
+      <c r="L28" t="s">
+        <v>0</v>
+      </c>
+      <c r="M28"/>
+      <c r="N28" t="s">
+        <v>0</v>
+      </c>
+      <c r="O28"/>
+      <c r="P28"/>
+      <c r="Q28"/>
+      <c r="R28"/>
+      <c r="S28"/>
+      <c r="T28" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>0</v>
+      </c>
+      <c r="B29" t="s">
+        <v>0</v>
+      </c>
+      <c r="C29"/>
+      <c r="D29" t="s">
+        <v>0</v>
+      </c>
+      <c r="E29" t="s">
+        <v>0</v>
+      </c>
+      <c r="F29" t="s">
+        <v>0</v>
+      </c>
+      <c r="G29" t="s">
+        <v>0</v>
+      </c>
+      <c r="H29" t="s">
+        <v>0</v>
+      </c>
+      <c r="I29"/>
+      <c r="J29" t="s">
+        <v>0</v>
+      </c>
+      <c r="K29"/>
+      <c r="L29" t="s">
+        <v>0</v>
+      </c>
+      <c r="M29"/>
+      <c r="N29" t="s">
+        <v>0</v>
+      </c>
+      <c r="O29"/>
+      <c r="P29" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>0</v>
+      </c>
+      <c r="R29" t="s">
+        <v>0</v>
+      </c>
+      <c r="S29"/>
+      <c r="T29" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>0</v>
+      </c>
+      <c r="B30" t="s">
+        <v>0</v>
+      </c>
+      <c r="C30"/>
+      <c r="D30"/>
+      <c r="E30"/>
+      <c r="F30" t="s">
+        <v>0</v>
+      </c>
+      <c r="G30"/>
+      <c r="H30"/>
+      <c r="I30"/>
+      <c r="J30" t="s">
+        <v>0</v>
+      </c>
+      <c r="K30"/>
+      <c r="L30" t="s">
+        <v>0</v>
+      </c>
+      <c r="M30"/>
+      <c r="N30" t="s">
+        <v>0</v>
+      </c>
+      <c r="O30"/>
+      <c r="P30" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q30"/>
+      <c r="R30" t="s">
+        <v>0</v>
+      </c>
+      <c r="S30"/>
+      <c r="T30" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>0</v>
+      </c>
+      <c r="B31" t="s">
+        <v>0</v>
+      </c>
+      <c r="C31" t="s">
+        <v>0</v>
+      </c>
+      <c r="D31" t="s">
+        <v>0</v>
+      </c>
+      <c r="E31"/>
+      <c r="F31" t="s">
+        <v>0</v>
+      </c>
+      <c r="G31"/>
+      <c r="H31" t="s">
+        <v>0</v>
+      </c>
+      <c r="I31" t="s">
+        <v>0</v>
+      </c>
+      <c r="J31" t="s">
+        <v>0</v>
+      </c>
+      <c r="K31"/>
+      <c r="L31" t="s">
+        <v>0</v>
+      </c>
+      <c r="M31"/>
+      <c r="N31" t="s">
+        <v>0</v>
+      </c>
+      <c r="O31"/>
+      <c r="P31" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q31"/>
+      <c r="R31" t="s">
+        <v>0</v>
+      </c>
+      <c r="S31"/>
+      <c r="T31" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>0</v>
+      </c>
+      <c r="B32" t="s">
+        <v>0</v>
+      </c>
+      <c r="C32"/>
+      <c r="D32"/>
+      <c r="E32"/>
+      <c r="F32" t="s">
+        <v>0</v>
+      </c>
+      <c r="G32"/>
+      <c r="H32"/>
+      <c r="I32"/>
+      <c r="J32" t="s">
+        <v>0</v>
+      </c>
+      <c r="K32"/>
+      <c r="L32" t="s">
+        <v>0</v>
+      </c>
+      <c r="M32"/>
+      <c r="N32"/>
+      <c r="O32"/>
+      <c r="P32"/>
+      <c r="Q32"/>
+      <c r="R32" t="s">
+        <v>0</v>
+      </c>
+      <c r="S32"/>
+      <c r="T32" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>0</v>
+      </c>
+      <c r="B33" t="s">
+        <v>0</v>
+      </c>
+      <c r="C33"/>
+      <c r="D33" t="s">
+        <v>0</v>
+      </c>
+      <c r="E33" t="s">
+        <v>0</v>
+      </c>
+      <c r="F33" t="s">
+        <v>0</v>
+      </c>
+      <c r="G33" t="s">
+        <v>0</v>
+      </c>
+      <c r="H33" t="s">
+        <v>0</v>
+      </c>
+      <c r="I33"/>
+      <c r="J33" t="s">
+        <v>0</v>
+      </c>
+      <c r="K33"/>
+      <c r="L33" t="s">
+        <v>0</v>
+      </c>
+      <c r="M33" t="s">
+        <v>0</v>
+      </c>
+      <c r="N33" t="s">
+        <v>0</v>
+      </c>
+      <c r="O33" t="s">
+        <v>0</v>
+      </c>
+      <c r="P33" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>0</v>
+      </c>
+      <c r="R33" t="s">
+        <v>0</v>
+      </c>
+      <c r="S33"/>
+      <c r="T33" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>0</v>
+      </c>
+      <c r="B34" t="s">
+        <v>0</v>
+      </c>
+      <c r="C34"/>
+      <c r="D34" t="s">
+        <v>0</v>
+      </c>
+      <c r="E34"/>
+      <c r="F34"/>
+      <c r="G34"/>
+      <c r="H34" t="s">
+        <v>0</v>
+      </c>
+      <c r="I34"/>
+      <c r="J34" t="s">
+        <v>0</v>
+      </c>
+      <c r="K34"/>
+      <c r="L34"/>
+      <c r="M34"/>
+      <c r="N34"/>
+      <c r="O34"/>
+      <c r="P34" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q34"/>
+      <c r="R34"/>
+      <c r="S34"/>
+      <c r="T34" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>0</v>
+      </c>
+      <c r="B35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C35"/>
+      <c r="D35" t="s">
+        <v>0</v>
+      </c>
+      <c r="E35" t="s">
+        <v>0</v>
+      </c>
+      <c r="F35" t="s">
+        <v>0</v>
+      </c>
+      <c r="G35"/>
+      <c r="H35" t="s">
+        <v>0</v>
+      </c>
+      <c r="I35"/>
+      <c r="J35" t="s">
+        <v>0</v>
+      </c>
+      <c r="K35" t="s">
+        <v>0</v>
+      </c>
+      <c r="L35" t="s">
+        <v>0</v>
+      </c>
+      <c r="M35" t="s">
+        <v>0</v>
+      </c>
+      <c r="N35" t="s">
+        <v>0</v>
+      </c>
+      <c r="O35"/>
+      <c r="P35" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q35"/>
+      <c r="R35" t="s">
+        <v>0</v>
+      </c>
+      <c r="S35"/>
+      <c r="T35" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>0</v>
+      </c>
+      <c r="B36" t="s">
+        <v>0</v>
+      </c>
+      <c r="C36"/>
+      <c r="D36"/>
+      <c r="E36"/>
+      <c r="F36"/>
+      <c r="G36"/>
+      <c r="H36" t="s">
+        <v>0</v>
+      </c>
+      <c r="I36"/>
+      <c r="J36"/>
+      <c r="K36"/>
+      <c r="L36"/>
+      <c r="M36"/>
+      <c r="N36" t="s">
+        <v>0</v>
+      </c>
+      <c r="O36"/>
+      <c r="P36" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q36"/>
+      <c r="R36" t="s">
+        <v>0</v>
+      </c>
+      <c r="S36"/>
+      <c r="T36" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>0</v>
+      </c>
+      <c r="B37" t="s">
+        <v>0</v>
+      </c>
+      <c r="C37" t="s">
+        <v>0</v>
+      </c>
+      <c r="D37" t="s">
+        <v>0</v>
+      </c>
+      <c r="E37" t="s">
+        <v>0</v>
+      </c>
+      <c r="F37" t="s">
+        <v>0</v>
+      </c>
+      <c r="G37" t="s">
+        <v>0</v>
+      </c>
+      <c r="H37" t="s">
+        <v>0</v>
+      </c>
+      <c r="I37" t="s">
+        <v>0</v>
+      </c>
+      <c r="J37" t="s">
+        <v>0</v>
+      </c>
+      <c r="K37"/>
+      <c r="L37" t="s">
+        <v>0</v>
+      </c>
+      <c r="M37" t="s">
+        <v>0</v>
+      </c>
+      <c r="N37" t="s">
+        <v>0</v>
+      </c>
+      <c r="O37"/>
+      <c r="P37" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q37"/>
+      <c r="R37" t="s">
+        <v>0</v>
+      </c>
+      <c r="S37"/>
+      <c r="T37" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>0</v>
+      </c>
+      <c r="B38" t="s">
+        <v>0</v>
+      </c>
+      <c r="C38"/>
+      <c r="D38"/>
+      <c r="E38"/>
+      <c r="F38"/>
+      <c r="G38"/>
+      <c r="H38"/>
+      <c r="I38"/>
+      <c r="J38"/>
+      <c r="K38"/>
+      <c r="L38" t="s">
+        <v>0</v>
+      </c>
+      <c r="M38"/>
+      <c r="N38"/>
+      <c r="O38"/>
+      <c r="P38" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q38"/>
+      <c r="R38" t="s">
+        <v>0</v>
+      </c>
+      <c r="S38"/>
+      <c r="T38" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>0</v>
+      </c>
+      <c r="B39" t="s">
+        <v>0</v>
+      </c>
+      <c r="C39"/>
+      <c r="D39" t="s">
+        <v>0</v>
+      </c>
+      <c r="E39" t="s">
+        <v>0</v>
+      </c>
+      <c r="F39" t="s">
+        <v>0</v>
+      </c>
+      <c r="G39" t="s">
+        <v>0</v>
+      </c>
+      <c r="H39" t="s">
+        <v>0</v>
+      </c>
+      <c r="I39" t="s">
+        <v>0</v>
+      </c>
+      <c r="J39" t="s">
+        <v>0</v>
+      </c>
+      <c r="K39" t="s">
+        <v>0</v>
+      </c>
+      <c r="L39" t="s">
+        <v>0</v>
+      </c>
+      <c r="M39"/>
+      <c r="N39" t="s">
+        <v>0</v>
+      </c>
+      <c r="O39" t="s">
+        <v>0</v>
+      </c>
+      <c r="P39" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q39"/>
+      <c r="R39" t="s">
+        <v>0</v>
+      </c>
+      <c r="S39"/>
+      <c r="T39" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>0</v>
+      </c>
+      <c r="B40" t="s">
+        <v>0</v>
+      </c>
+      <c r="C40"/>
+      <c r="D40"/>
+      <c r="E40"/>
+      <c r="F40"/>
+      <c r="G40"/>
+      <c r="H40"/>
+      <c r="I40"/>
+      <c r="J40"/>
+      <c r="K40"/>
+      <c r="L40"/>
+      <c r="M40"/>
+      <c r="N40"/>
+      <c r="O40"/>
+      <c r="P40"/>
+      <c r="Q40"/>
+      <c r="R40" t="s">
+        <v>0</v>
+      </c>
+      <c r="S40">
+        <v>1000000</v>
+      </c>
+      <c r="T40" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>0</v>
+      </c>
+      <c r="B41" t="s">
+        <v>0</v>
+      </c>
+      <c r="C41" t="s">
+        <v>0</v>
+      </c>
+      <c r="D41" t="s">
+        <v>0</v>
+      </c>
+      <c r="E41" t="s">
+        <v>0</v>
+      </c>
+      <c r="F41" t="s">
+        <v>0</v>
+      </c>
+      <c r="G41" t="s">
+        <v>0</v>
+      </c>
+      <c r="H41" t="s">
+        <v>0</v>
+      </c>
+      <c r="I41" t="s">
+        <v>0</v>
+      </c>
+      <c r="J41" t="s">
+        <v>0</v>
+      </c>
+      <c r="K41" t="s">
+        <v>0</v>
+      </c>
+      <c r="L41" t="s">
+        <v>0</v>
+      </c>
+      <c r="M41" t="s">
+        <v>0</v>
+      </c>
+      <c r="N41" t="s">
+        <v>0</v>
+      </c>
+      <c r="O41" t="s">
+        <v>0</v>
+      </c>
+      <c r="P41" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>0</v>
+      </c>
+      <c r="R41" t="s">
+        <v>0</v>
+      </c>
+      <c r="S41" t="s">
+        <v>0</v>
+      </c>
+      <c r="T41" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A1:XFD1048576">
+    <cfRule type="containsText" dxfId="3" priority="1" stopIfTrue="1" operator="containsText" text="S">
+      <formula>NOT(ISERROR(SEARCH("S",A1)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="4" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="8" orientation="portrait" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="2" stopIfTrue="1" operator="containsText" id="{F32F638B-62D4-487C-9358-5AFFF46C8189}">
+            <xm:f>NOT(ISERROR(SEARCH("#",A1)))</xm:f>
+            <xm:f>"#"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="1"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>A1:XFD1048576</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
+</worksheet>
 </file>